--- a/realestate/documents/ReportSpeseDichiarazioneFiscale.xlsx
+++ b/realestate/documents/ReportSpeseDichiarazioneFiscale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E116C2F9-0FBC-4224-B334-C38BC17F8CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FF3B8-9470-4F45-8AF2-74937DE0AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -618,7 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -832,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B15" s="9">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="9">
         <f>$B15/$G$6*$D6</f>
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="E15" s="9">
         <f>$B15/$G$6*$E6</f>
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F15" s="9">
         <f>$B15/$G$6*$F6</f>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" ref="G15:G21" si="0">$B15-SUM($D15:$F15)</f>
@@ -859,22 +861,22 @@
         <v>19</v>
       </c>
       <c r="B16" s="9">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="9">
         <f>$B16/$G$6*$D6</f>
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="E16" s="9">
         <f>$B16/$G$6*$E6</f>
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="F16" s="9">
         <f>$B16/$G$6*$F6</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
@@ -886,22 +888,22 @@
         <v>20</v>
       </c>
       <c r="B17" s="9">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="9">
         <f>$B17/$G$6*$D6</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E17" s="9">
         <f>$B17/$G$6*$E6</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F17" s="9">
         <f>$B17/$G$6*$F6</f>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
@@ -913,22 +915,22 @@
         <v>21</v>
       </c>
       <c r="B18" s="9">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="9">
         <f>$B18/$G$6*$D6</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E18" s="9">
         <f>$B18/$G$6*$E6</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F18" s="9">
         <f>$B18/$G$6*$F6</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="0"/>
@@ -967,22 +969,22 @@
         <v>23</v>
       </c>
       <c r="B20" s="9">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="9">
         <f>$B20/$G$6*$D6</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E20" s="9">
         <f>$B20/$G$6*$E6</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F20" s="9">
         <f>$B20/$G$6*$F6</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="0"/>
@@ -995,20 +997,20 @@
       </c>
       <c r="B21" s="10">
         <f>SUBTOTAL(109,B14:B20)</f>
-        <v>7750</v>
+        <v>8850</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="10">
         <f>SUBTOTAL(109,D14:D20)</f>
-        <v>1550</v>
+        <v>1770</v>
       </c>
       <c r="E21" s="10">
         <f>SUBTOTAL(109,E14:E20)</f>
-        <v>2325</v>
+        <v>2655</v>
       </c>
       <c r="F21" s="10">
         <f>SUBTOTAL(109,F14:F20)</f>
-        <v>3875</v>
+        <v>4425</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="0"/>

--- a/realestate/documents/ReportSpeseDichiarazioneFiscale.xlsx
+++ b/realestate/documents/ReportSpeseDichiarazioneFiscale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FF3B8-9470-4F45-8AF2-74937DE0AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D4D729-BCE7-4D42-9940-E2D5629D8B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Spesa da ripartire</t>
   </si>
@@ -111,6 +111,27 @@
   </si>
   <si>
     <t>Ripartizione delle spese per la dichiarazione fiscale</t>
+  </si>
+  <si>
+    <t>App. 4</t>
+  </si>
+  <si>
+    <t>App. 5</t>
+  </si>
+  <si>
+    <t>App. 6</t>
+  </si>
+  <si>
+    <t>App. 7</t>
+  </si>
+  <si>
+    <t>App. 8</t>
+  </si>
+  <si>
+    <t>App. 9</t>
+  </si>
+  <si>
+    <t>App. 10</t>
   </si>
 </sst>
 </file>
@@ -616,29 +637,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9073075C-C130-45EE-B2DF-A3C8E1CA77C7}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -649,7 +671,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
@@ -665,30 +687,72 @@
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="8">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="E6" s="6">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6">
-        <v>500</v>
-      </c>
-      <c r="G6" s="6">
-        <f>SUM($D6:$F6)</f>
+        <v>125</v>
+      </c>
+      <c r="G6" s="8">
+        <v>70</v>
+      </c>
+      <c r="H6" s="6">
+        <v>80</v>
+      </c>
+      <c r="I6" s="6">
+        <v>125</v>
+      </c>
+      <c r="J6" s="6">
+        <v>140</v>
+      </c>
+      <c r="K6" s="8">
+        <v>85</v>
+      </c>
+      <c r="L6" s="6">
+        <v>85</v>
+      </c>
+      <c r="M6" s="6">
+        <v>140</v>
+      </c>
+      <c r="N6" s="6">
+        <f>SUM($D6:$M6)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
@@ -703,12 +767,33 @@
       <c r="F7" s="6">
         <v>124</v>
       </c>
-      <c r="G7" s="6">
-        <f>SUM($D7:$F7)</f>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="8">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6">
+        <v>85</v>
+      </c>
+      <c r="I7" s="6">
+        <v>124</v>
+      </c>
+      <c r="J7" s="6">
+        <v>130</v>
+      </c>
+      <c r="K7" s="8">
+        <v>95</v>
+      </c>
+      <c r="L7" s="6">
+        <v>95</v>
+      </c>
+      <c r="M7" s="6">
+        <v>130</v>
+      </c>
+      <c r="N7" s="6">
+        <f>SUM($D7:$M7)</f>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -723,12 +808,33 @@
       <c r="F8" s="6">
         <v>22578</v>
       </c>
-      <c r="G8" s="6">
-        <f>SUM($D8:$F8)</f>
-        <v>46219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="8">
+        <v>9980</v>
+      </c>
+      <c r="H8" s="6">
+        <v>15050</v>
+      </c>
+      <c r="I8" s="6">
+        <v>20200</v>
+      </c>
+      <c r="J8" s="6">
+        <v>21000</v>
+      </c>
+      <c r="K8" s="8">
+        <v>8690</v>
+      </c>
+      <c r="L8" s="6">
+        <v>10900</v>
+      </c>
+      <c r="M8" s="6">
+        <v>19000</v>
+      </c>
+      <c r="N8" s="6">
+        <f>SUM($D8:$M8)</f>
+        <v>151039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -743,12 +849,33 @@
       <c r="F9" s="6">
         <v>1898</v>
       </c>
-      <c r="G9" s="6">
-        <f>SUM($D9:$F9)</f>
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="8">
+        <v>902</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1050</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1490</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1520</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1385</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1140</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1925</v>
+      </c>
+      <c r="N9" s="6">
+        <f>SUM($D9:$M9)</f>
+        <v>13624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
@@ -763,12 +890,33 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
-        <f>SUM($D10:$F10)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <f>SUM($D10:$M10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
@@ -777,9 +925,16 @@
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -799,10 +954,31 @@
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -813,23 +989,51 @@
         <v>15</v>
       </c>
       <c r="D14" s="9">
-        <f>$B14/$G$6*$D6</f>
-        <v>800</v>
+        <f>$B14/$N$6*$D$6</f>
+        <v>280</v>
       </c>
       <c r="E14" s="9">
-        <f>$B14/$G$6*$E6</f>
-        <v>1200</v>
+        <f>$B14/$N$6*$E$6</f>
+        <v>320</v>
       </c>
       <c r="F14" s="9">
-        <f>$B14/$G$6*$F6</f>
-        <v>2000</v>
+        <f>$B14/$N$6*$F$6</f>
+        <v>500</v>
       </c>
       <c r="G14" s="9">
-        <f>$B14-SUM($D14:$F14)</f>
+        <f>$B14/$N$6*$G$6</f>
+        <v>280</v>
+      </c>
+      <c r="H14" s="9">
+        <f>$B14/$N$6*$H$6</f>
+        <v>320</v>
+      </c>
+      <c r="I14" s="9">
+        <f>$B14/$N$6*$I$6</f>
+        <v>500</v>
+      </c>
+      <c r="J14" s="9">
+        <f>$B14/$N$6*$J$6</f>
+        <v>560</v>
+      </c>
+      <c r="K14" s="9">
+        <f>$B14/$N$6*$K$6</f>
+        <v>340</v>
+      </c>
+      <c r="L14" s="9">
+        <f>$B14/$N$6*$L$6</f>
+        <v>340</v>
+      </c>
+      <c r="M14" s="9">
+        <f>$B14/$N$6*$M$6</f>
+        <v>560</v>
+      </c>
+      <c r="N14" s="9">
+        <f>$B14-SUM($D14:$M14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -840,23 +1044,51 @@
         <v>15</v>
       </c>
       <c r="D15" s="9">
-        <f>$B15/$G$6*$D6</f>
-        <v>360</v>
+        <f t="shared" ref="D15:D20" si="0">$B15/$N$6*$D$6</f>
+        <v>126</v>
       </c>
       <c r="E15" s="9">
-        <f>$B15/$G$6*$E6</f>
-        <v>540</v>
+        <f t="shared" ref="E15:E20" si="1">$B15/$N$6*$E$6</f>
+        <v>144</v>
       </c>
       <c r="F15" s="9">
-        <f>$B15/$G$6*$F6</f>
-        <v>900</v>
+        <f t="shared" ref="F15:F20" si="2">$B15/$N$6*$F$6</f>
+        <v>225</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ref="G15:G21" si="0">$B15-SUM($D15:$F15)</f>
+        <f t="shared" ref="G15:G20" si="3">$B15/$N$6*$G$6</f>
+        <v>126</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" ref="H15:H20" si="4">$B15/$N$6*$H$6</f>
+        <v>144</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" ref="I15:I20" si="5">$B15/$N$6*$I$6</f>
+        <v>225</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" ref="J15:J20" si="6">$B15/$N$6*$J$6</f>
+        <v>252</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" ref="K15:K20" si="7">$B15/$N$6*$K$6</f>
+        <v>153</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" ref="L15:L20" si="8">$B15/$N$6*$L$6</f>
+        <v>153</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" ref="M15:M20" si="9">$B15/$N$6*$M$6</f>
+        <v>252</v>
+      </c>
+      <c r="N15" s="9">
+        <f>$B15-SUM($D15:$M15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -867,23 +1099,51 @@
         <v>15</v>
       </c>
       <c r="D16" s="9">
-        <f>$B16/$G$6*$D6</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
       <c r="E16" s="9">
-        <f>$B16/$G$6*$E6</f>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="F16" s="9">
-        <f>$B16/$G$6*$F6</f>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="N16" s="9">
+        <f>$B16-SUM($D16:$M16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -894,23 +1154,51 @@
         <v>15</v>
       </c>
       <c r="D17" s="9">
-        <f>$B17/$G$6*$D6</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>10.5</v>
       </c>
       <c r="E17" s="9">
-        <f>$B17/$G$6*$E6</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="F17" s="9">
-        <f>$B17/$G$6*$F6</f>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>18.75</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="5"/>
+        <v>18.75</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="7"/>
+        <v>12.75</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="8"/>
+        <v>12.75</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="N17" s="9">
+        <f>$B17-SUM($D17:$M17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -921,23 +1209,51 @@
         <v>15</v>
       </c>
       <c r="D18" s="9">
-        <f>$B18/$G$6*$D6</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="E18" s="9">
-        <f>$B18/$G$6*$E6</f>
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="F18" s="9">
-        <f>$B18/$G$6*$F6</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="N18" s="9">
+        <f>$B18-SUM($D18:$M18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -948,23 +1264,51 @@
         <v>15</v>
       </c>
       <c r="D19" s="9">
-        <f>$B19/$G$6*$D6</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E19" s="9">
-        <f>$B19/$G$6*$E6</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="F19" s="9">
-        <f>$B19/$G$6*$F6</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>37.5</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="7"/>
+        <v>25.5</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="8"/>
+        <v>25.5</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="N19" s="9">
+        <f>$B19-SUM($D19:$M19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -975,23 +1319,51 @@
         <v>15</v>
       </c>
       <c r="D20" s="9">
-        <f>$B20/$G$6*$D6</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E20" s="9">
-        <f>$B20/$G$6*$E6</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="F20" s="9">
-        <f>$B20/$G$6*$F6</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="N20" s="9">
+        <f>$B20-SUM($D20:$M20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
@@ -1002,18 +1374,46 @@
       <c r="C21" s="11"/>
       <c r="D21" s="10">
         <f>SUBTOTAL(109,D14:D20)</f>
-        <v>1770</v>
+        <v>619.5</v>
       </c>
       <c r="E21" s="10">
         <f>SUBTOTAL(109,E14:E20)</f>
-        <v>2655</v>
+        <v>708</v>
       </c>
       <c r="F21" s="10">
         <f>SUBTOTAL(109,F14:F20)</f>
-        <v>4425</v>
+        <v>1106.25</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="0"/>
+        <f>SUBTOTAL(109,G14:G20)</f>
+        <v>619.5</v>
+      </c>
+      <c r="H21" s="10">
+        <f>SUBTOTAL(109,H14:H20)</f>
+        <v>708</v>
+      </c>
+      <c r="I21" s="10">
+        <f>SUBTOTAL(109,I14:I20)</f>
+        <v>1106.25</v>
+      </c>
+      <c r="J21" s="10">
+        <f>SUBTOTAL(109,J14:J20)</f>
+        <v>1239</v>
+      </c>
+      <c r="K21" s="10">
+        <f>SUBTOTAL(109,K14:K20)</f>
+        <v>752.25</v>
+      </c>
+      <c r="L21" s="10">
+        <f>SUBTOTAL(109,L14:L20)</f>
+        <v>752.25</v>
+      </c>
+      <c r="M21" s="10">
+        <f>SUBTOTAL(109,M14:M20)</f>
+        <v>1239</v>
+      </c>
+      <c r="N21" s="10">
+        <f>$B21-SUM($D21:$M21)</f>
         <v>0</v>
       </c>
     </row>

--- a/realestate/documents/ReportSpeseDichiarazioneFiscale.xlsx
+++ b/realestate/documents/ReportSpeseDichiarazioneFiscale.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\realestate\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D4D729-BCE7-4D42-9940-E2D5629D8B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C53B95-0B24-4DBF-8396-D20D3ACA8DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
+    <workbookView xWindow="57480" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{C8DA3664-E04A-4EE4-B0E8-18F2F24E5315}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spese dichiarazione fiscale" sheetId="4" r:id="rId1"/>
+    <sheet name="Spese per tasse" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
-    <t>Spesa da ripartire</t>
-  </si>
-  <si>
     <t>App. 1</t>
   </si>
   <si>
@@ -59,15 +56,9 @@
     <t>Totale</t>
   </si>
   <si>
-    <t>Stabile Cedro</t>
-  </si>
-  <si>
     <t>Periodo:</t>
   </si>
   <si>
-    <t>Tipo di ripartizione</t>
-  </si>
-  <si>
     <t>altro</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>Spese di manutenzione e altre spese</t>
   </si>
   <si>
-    <t>Ripartizione delle spese per la dichiarazione fiscale</t>
-  </si>
-  <si>
     <t>App. 4</t>
   </si>
   <si>
@@ -132,6 +120,18 @@
   </si>
   <si>
     <t>App. 10</t>
+  </si>
+  <si>
+    <t>Nome Stabile</t>
+  </si>
+  <si>
+    <t>Tipo di suddivisione</t>
+  </si>
+  <si>
+    <t>Spesa da suddividere</t>
+  </si>
+  <si>
+    <t>Suddivisione delle spese per le tasse</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,68 +652,68 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>45292</v>
+        <v>46023</v>
       </c>
       <c r="C3" s="2">
-        <v>45657</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -754,171 +754,91 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="8">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6">
-        <v>85</v>
-      </c>
-      <c r="F7" s="6">
-        <v>124</v>
-      </c>
-      <c r="G7" s="8">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6">
-        <v>85</v>
-      </c>
-      <c r="I7" s="6">
-        <v>124</v>
-      </c>
-      <c r="J7" s="6">
-        <v>130</v>
-      </c>
-      <c r="K7" s="8">
-        <v>95</v>
-      </c>
-      <c r="L7" s="6">
-        <v>95</v>
-      </c>
-      <c r="M7" s="6">
-        <v>130</v>
-      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="6">
         <f>SUM($D7:$M7)</f>
-        <v>976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="8">
-        <v>10241</v>
-      </c>
-      <c r="E8" s="6">
-        <v>13400</v>
-      </c>
-      <c r="F8" s="6">
-        <v>22578</v>
-      </c>
-      <c r="G8" s="8">
-        <v>9980</v>
-      </c>
-      <c r="H8" s="6">
-        <v>15050</v>
-      </c>
-      <c r="I8" s="6">
-        <v>20200</v>
-      </c>
-      <c r="J8" s="6">
-        <v>21000</v>
-      </c>
-      <c r="K8" s="8">
-        <v>8690</v>
-      </c>
-      <c r="L8" s="6">
-        <v>10900</v>
-      </c>
-      <c r="M8" s="6">
-        <v>19000</v>
-      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="6">
         <f>SUM($D8:$M8)</f>
-        <v>151039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="8">
-        <v>1104</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1210</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1898</v>
-      </c>
-      <c r="G9" s="8">
-        <v>902</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1050</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1490</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1520</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1385</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1140</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1925</v>
-      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="6">
         <f>SUM($D9:$M9)</f>
-        <v>13624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="6">
         <f>SUM($D10:$M10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -936,57 +856,57 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9">
         <v>4000</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="9">
         <f>$B14/$N$6*$D$6</f>
@@ -1029,343 +949,343 @@
         <v>560</v>
       </c>
       <c r="N14" s="9">
-        <f>$B14-SUM($D14:$M14)</f>
+        <f t="shared" ref="N14:N21" si="0">$B14-SUM($D14:$M14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9">
         <v>1800</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" ref="D15:D20" si="0">$B15/$N$6*$D$6</f>
+        <f t="shared" ref="D15:D20" si="1">$B15/$N$6*$D$6</f>
         <v>126</v>
       </c>
       <c r="E15" s="9">
-        <f t="shared" ref="E15:E20" si="1">$B15/$N$6*$E$6</f>
+        <f t="shared" ref="E15:E20" si="2">$B15/$N$6*$E$6</f>
         <v>144</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" ref="F15:F20" si="2">$B15/$N$6*$F$6</f>
+        <f t="shared" ref="F15:F20" si="3">$B15/$N$6*$F$6</f>
         <v>225</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ref="G15:G20" si="3">$B15/$N$6*$G$6</f>
+        <f t="shared" ref="G15:G20" si="4">$B15/$N$6*$G$6</f>
         <v>126</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ref="H15:H20" si="4">$B15/$N$6*$H$6</f>
+        <f t="shared" ref="H15:H20" si="5">$B15/$N$6*$H$6</f>
         <v>144</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" ref="I15:I20" si="5">$B15/$N$6*$I$6</f>
+        <f t="shared" ref="I15:I20" si="6">$B15/$N$6*$I$6</f>
         <v>225</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" ref="J15:J20" si="6">$B15/$N$6*$J$6</f>
+        <f t="shared" ref="J15:J20" si="7">$B15/$N$6*$J$6</f>
         <v>252</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" ref="K15:K20" si="7">$B15/$N$6*$K$6</f>
+        <f t="shared" ref="K15:K20" si="8">$B15/$N$6*$K$6</f>
         <v>153</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" ref="L15:L20" si="8">$B15/$N$6*$L$6</f>
+        <f t="shared" ref="L15:L20" si="9">$B15/$N$6*$L$6</f>
         <v>153</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" ref="M15:M20" si="9">$B15/$N$6*$M$6</f>
+        <f t="shared" ref="M15:M20" si="10">$B15/$N$6*$M$6</f>
         <v>252</v>
       </c>
       <c r="N15" s="9">
-        <f>$B15-SUM($D15:$M15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9">
         <v>2000</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="L16" s="9">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
+      <c r="L16" s="9">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
       <c r="M16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>280</v>
       </c>
       <c r="N16" s="9">
-        <f>$B16-SUM($D16:$M16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9">
         <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.75</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="7"/>
-        <v>12.75</v>
-      </c>
-      <c r="L17" s="9">
         <f t="shared" si="8"/>
         <v>12.75</v>
       </c>
+      <c r="L17" s="9">
+        <f t="shared" si="9"/>
+        <v>12.75</v>
+      </c>
       <c r="M17" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="N17" s="9">
-        <f>$B17-SUM($D17:$M17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="9">
         <v>400</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="L18" s="9">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
+      <c r="L18" s="9">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
       <c r="M18" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="N18" s="9">
-        <f>$B18-SUM($D18:$M18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="9">
         <v>300</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37.5</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="7"/>
-        <v>25.5</v>
-      </c>
-      <c r="L19" s="9">
         <f t="shared" si="8"/>
         <v>25.5</v>
       </c>
+      <c r="L19" s="9">
+        <f t="shared" si="9"/>
+        <v>25.5</v>
+      </c>
       <c r="M19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="N19" s="9">
-        <f>$B19-SUM($D19:$M19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="9">
         <v>200</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="L20" s="9">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
+      <c r="L20" s="9">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
       <c r="M20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="N20" s="9">
-        <f>$B20-SUM($D20:$M20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="10">
         <f>SUBTOTAL(109,B14:B20)</f>
@@ -1373,47 +1293,47 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="10">
-        <f>SUBTOTAL(109,D14:D20)</f>
+        <f t="shared" ref="D21:M21" si="11">SUBTOTAL(109,D14:D20)</f>
         <v>619.5</v>
       </c>
       <c r="E21" s="10">
-        <f>SUBTOTAL(109,E14:E20)</f>
+        <f t="shared" si="11"/>
         <v>708</v>
       </c>
       <c r="F21" s="10">
-        <f>SUBTOTAL(109,F14:F20)</f>
+        <f t="shared" si="11"/>
         <v>1106.25</v>
       </c>
       <c r="G21" s="10">
-        <f>SUBTOTAL(109,G14:G20)</f>
+        <f t="shared" si="11"/>
         <v>619.5</v>
       </c>
       <c r="H21" s="10">
-        <f>SUBTOTAL(109,H14:H20)</f>
+        <f t="shared" si="11"/>
         <v>708</v>
       </c>
       <c r="I21" s="10">
-        <f>SUBTOTAL(109,I14:I20)</f>
+        <f t="shared" si="11"/>
         <v>1106.25</v>
       </c>
       <c r="J21" s="10">
-        <f>SUBTOTAL(109,J14:J20)</f>
+        <f t="shared" si="11"/>
         <v>1239</v>
       </c>
       <c r="K21" s="10">
-        <f>SUBTOTAL(109,K14:K20)</f>
+        <f t="shared" si="11"/>
         <v>752.25</v>
       </c>
       <c r="L21" s="10">
-        <f>SUBTOTAL(109,L14:L20)</f>
+        <f t="shared" si="11"/>
         <v>752.25</v>
       </c>
       <c r="M21" s="10">
-        <f>SUBTOTAL(109,M14:M20)</f>
+        <f t="shared" si="11"/>
         <v>1239</v>
       </c>
       <c r="N21" s="10">
-        <f>$B21-SUM($D21:$M21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
